--- a/xlsx/帛琉_intext.xlsx
+++ b/xlsx/帛琉_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="409">
   <si>
     <t>帛琉</t>
   </si>
@@ -29,7 +29,7 @@
     <t>地理坐标</t>
   </si>
   <si>
-    <t>政策_政策_美國_帛琉</t>
+    <t>政策_政策_美国_帛琉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%8A%B3%E5%9B%BD%E6%97%97</t>
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%8B%9E%E5%9C%8B%E5%BE%BD</t>
   </si>
   <si>
-    <t>帕勞國徽</t>
+    <t>帕劳国徽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
   </si>
   <si>
-    <t>國歌</t>
+    <t>国歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%91%E4%BB%AC%E7%9A%84%E5%B8%95%E5%8A%B3</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家面積列表</t>
+    <t>国家面积列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
@@ -77,19 +77,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E7%88%BE</t>
   </si>
   <si>
-    <t>科羅爾</t>
+    <t>科罗尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B2%B8%E7%B7%9A</t>
   </si>
   <si>
-    <t>海岸線</t>
+    <t>海岸线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>時區</t>
+    <t>时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家人口列表</t>
+    <t>国家人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2017%E5%B9%B4</t>
@@ -125,19 +125,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>官方語言</t>
+    <t>官方语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9B%E7%90%89%E8%AA%9E</t>
   </si>
   <si>
-    <t>帛琉語</t>
+    <t>帛琉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E6%96%87%E5%AD%97</t>
@@ -173,25 +173,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E7%AF%80%E6%97%A5</t>
   </si>
   <si>
-    <t>主要節日</t>
+    <t>主要节日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>國家憲法</t>
+    <t>国家宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E4%B8%80%E5%88%B6</t>
   </si>
   <si>
-    <t>單一制</t>
+    <t>单一制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>政權</t>
+    <t>政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%8A%B3%E5%9B%BD%E4%BC%9A</t>
@@ -203,19 +203,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>政治體制</t>
+    <t>政治体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
   </si>
   <si>
-    <t>總統制</t>
+    <t>总统制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>法律體系</t>
+    <t>法律体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E7%BE%8E%E6%B3%95%E7%B3%BB</t>
@@ -227,37 +227,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9B%E7%90%89%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>帛琉總統</t>
+    <t>帛琉总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E7%B1%B3%C2%B7%E9%9B%B7%E8%92%99%E5%82%91%E7%B4%A2</t>
   </si>
   <si>
-    <t>湯米·雷蒙傑索</t>
+    <t>汤米·雷蒙杰索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
+    <t>政府首脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>國內生產總值</t>
+    <t>国内生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
   </si>
   <si>
-    <t>購買力平價</t>
+    <t>购买力平价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>人類發展指數</t>
+    <t>人类发展指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2011%E5%B9%B4</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>國際域名縮寫</t>
+    <t>国际域名缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/.pw</t>
@@ -305,13 +305,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國際電話區號列表</t>
+    <t>国际电话区号列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%8B%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>帕勞語</t>
+    <t>帕劳语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%B1%AC%E6%9D%B1%E5%8D%B0%E5%BA%A6%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>西屬東印度群島</t>
+    <t>西属东印度群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%A5%BF%E6%88%98%E4%BA%89</t>
@@ -383,13 +383,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>德意志帝國</t>
+    <t>德意志帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B1%AC%E6%96%B0%E5%B9%BE%E5%85%A7%E4%BA%9E</t>
   </si>
   <si>
-    <t>德屬新幾內亞</t>
+    <t>德属新几内亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
@@ -401,13 +401,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%97%A5%E6%9C%AC%E5%B8%9D%E5%9C%8B%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>大日本帝國海軍</t>
+    <t>大日本帝国海军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國際聯盟</t>
+    <t>国际联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%B4%8B%E7%BE%A4%E5%B2%9B</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E4%BA%9E%E7%B4%8D%E7%BE%A4%E5%B3%B6%E5%8F%8A%E5%B8%9B%E7%90%89%E6%88%B0%E4%BA%8B</t>
   </si>
   <si>
-    <t>馬里亞納群島及帛琉戰事</t>
+    <t>马里亚纳群岛及帛琉战事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E8%8E%B1%E5%88%A9%E4%B9%8C%E6%88%98%E5%BD%B9</t>
@@ -437,13 +437,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E4%B8%89%E5%A4%A7%E5%B3%B6%E7%BE%A4</t>
   </si>
   <si>
-    <t>太平洋三大島群</t>
+    <t>太平洋三大岛群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E7%BE%A4%E5%B3%B6%E8%A8%97%E7%AE%A1%E5%9C%B0</t>
   </si>
   <si>
-    <t>太平洋群島託管地</t>
+    <t>太平洋群岛讬管地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%81%94%E5%90%88%E5%8D%8F%E5%AE%9A</t>
@@ -473,9 +473,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第一次世界大戰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
   </si>
   <si>
@@ -485,37 +482,34 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%81%AF%E5%90%88</t>
   </si>
   <si>
-    <t>自由聯合</t>
+    <t>自由联合</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%BB%8D</t>
   </si>
   <si>
-    <t>美軍</t>
+    <t>美军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>波里尼西亞</t>
+    <t>波里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3-14</t>
@@ -527,19 +521,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E5%8B%92%E6%96%AF%E4%BA%BA</t>
   </si>
   <si>
-    <t>佛羅勒斯人</t>
+    <t>佛罗勒斯人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E9%99%A2%E5%88%B6</t>
   </si>
   <si>
-    <t>兩院制</t>
+    <t>两院制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9B%E7%90%89%E5%85%B1%E5%92%8C%E5%9C%8B%E9%A7%90%E5%A4%96%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>帛琉共和國駐外機構列表</t>
+    <t>帛琉共和国驻外机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4%E5%85%B3%E7%B3%BB</t>
@@ -551,31 +545,28 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4%E4%BB%A3%E8%A1%A8%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>外交代表機構</t>
+    <t>外交代表机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%EF%BC%8D%E5%B8%9B%E7%90%89%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>中華民國－帛琉關係</t>
+    <t>中华民国－帛琉关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9B%E7%90%89%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>帛琉行政區劃</t>
+    <t>帛琉行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E6%A2%85%E5%88%A9%E5%85%8B%E5%B7%9E</t>
@@ -593,7 +584,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%8A%A0%E7%88%BE</t>
   </si>
   <si>
-    <t>安加爾</t>
+    <t>安加尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E6%89%98%E5%8D%9A%E6%B5%B7%E4%BC%8A%E5%B7%9E</t>
@@ -605,13 +596,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8F%9A%E5%9F%83%E7%88%BE</t>
   </si>
   <si>
-    <t>卡揚埃爾</t>
+    <t>卡扬埃尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E6%8B%89%E7%88%BE%E5%BE%B7%E5%B7%9E</t>
   </si>
   <si>
-    <t>雅拉爾德州</t>
+    <t>雅拉尔德州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%88%87%E9%9A%86%E5%B7%9E</t>
@@ -623,25 +614,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%BE%B7%E9%A6%AC%E7%83%8F%E5%B7%9E</t>
   </si>
   <si>
-    <t>雅德馬烏州</t>
+    <t>雅德马乌州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E9%BE%90</t>
   </si>
   <si>
-    <t>雅龐</t>
+    <t>雅庞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E5%88%87%E8%96%A9%E7%88%BE%E5%B7%9E</t>
   </si>
   <si>
-    <t>恩切薩爾州</t>
+    <t>恩切萨尔州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%9B%B7%E5%A7%86%E5%80%AB%E7%B6%AD%E5%B7%9E</t>
   </si>
   <si>
-    <t>埃雷姆倫維州</t>
+    <t>埃雷姆伦维州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9C%E7%93%A6%E5%B0%94%E5%B7%9E</t>
@@ -653,19 +644,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E9%87%8C%E7%90%89</t>
   </si>
   <si>
-    <t>貝里琉</t>
+    <t>贝里琉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E7%B4%A2%E7%BE%85%E7%88%BE</t>
   </si>
   <si>
-    <t>松索羅爾</t>
+    <t>松索罗尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%8B%9E%E5%9C%B0%E7%90%86</t>
   </si>
   <si>
-    <t>帕勞地理</t>
+    <t>帕劳地理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%A1%E7%A4%81</t>
@@ -677,13 +668,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E6%B5%A6%E5%B3%B6</t>
   </si>
   <si>
-    <t>雅浦島</t>
+    <t>雅浦岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E6%B5%A6%E5%B3%B6%E7%9F%B3%E5%B9%A3</t>
   </si>
   <si>
-    <t>雅浦島石幣</t>
+    <t>雅浦岛石币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -707,7 +698,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9A%E6%96%B0%E5%87%A0%E5%86%85%E4%BA%9A</t>
@@ -719,19 +710,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E5%9E%8B%E9%9B%A8%E6%9E%97%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>熱帶型雨林氣候</t>
+    <t>热带型雨林气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E6%B0%A3%E6%97%8B</t>
   </si>
   <si>
-    <t>熱帶氣旋</t>
+    <t>热带气旋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%B1%E9%A2%A8%E6%B5%B7%E7%87%95_(2013%E5%B9%B4)</t>
   </si>
   <si>
-    <t>颱風海燕 (2013年)</t>
+    <t>台风海燕 (2013年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%8D%E6%B0%B4</t>
@@ -743,25 +734,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%85%A7%E6%99%82%E6%95%B8</t>
   </si>
   <si>
-    <t>日照時數</t>
+    <t>日照时数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9B%E7%90%89%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>帛琉經濟</t>
+    <t>帛琉经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E9%81%8A%E6%A5%AD</t>
   </si>
   <si>
-    <t>旅遊業</t>
+    <t>旅游业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E</t>
   </si>
   <si>
-    <t>東亞</t>
+    <t>东亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9B%E7%90%89%E4%BA%BA%E5%8F%A3</t>
@@ -791,31 +782,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E</t>
   </si>
   <si>
-    <t>日語</t>
+    <t>日语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%9B%BC%C2%B7%E8%8E%AB%E5%9C%96%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>羅曼·莫圖國際機場</t>
+    <t>罗曼·莫图国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E9%87%8C%E7%90%89%E7%A9%BA%E8%BB%8D%E5%9F%BA%E5%9C%B0</t>
   </si>
   <si>
-    <t>貝里琉空軍基地</t>
+    <t>贝里琉空军基地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%8A%A0%E7%88%BE%E8%B5%B7%E9%99%8D%E5%A0%B4</t>
   </si>
   <si>
-    <t>安加爾起降場</t>
+    <t>安加尔起降场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9B%E7%90%89%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>帛琉國際機場</t>
+    <t>帛琉国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9B%E7%90%89%E5%A4%AA%E5%B9%B3%E6%B4%8B%E8%88%AA%E7%A9%BA</t>
@@ -827,13 +818,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>中華航空</t>
+    <t>中华航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>聯合航空</t>
+    <t>联合航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%B9%B4</t>
@@ -875,15 +866,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E9%87%8C%E7%90%89%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>貝里琉戰役</t>
+    <t>贝里琉战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AF%AD</t>
   </si>
   <si>
-    <t>日语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%96%87</t>
   </si>
   <si>
@@ -893,13 +881,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E6%AF%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>托比島</t>
+    <t>托比岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E5%85%8B%E7%BE%A4%E5%B3%B6_(%E5%B8%9B%E7%90%89)</t>
   </si>
   <si>
-    <t>洛克群島 (帛琉)</t>
+    <t>洛克群岛 (帛琉)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Central_Intelligence_Agency</t>
@@ -917,7 +905,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
   </si>
   <si>
-    <t>維基導遊</t>
+    <t>维基导游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%A6%82%E5%86%B5</t>
@@ -941,7 +929,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E7%B9%AB%E9%82%A6</t>
   </si>
   <si>
-    <t>聯繫邦</t>
+    <t>联系邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Oceania</t>
@@ -983,13 +971,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
@@ -1001,13 +989,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E6%8B%89%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大拉西亞</t>
+    <t>澳大拉西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%A7%91%E6%96%AF%EF%BC%88%E5%9F%BA%E6%9E%97%EF%BC%89%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>科科斯（基林）群島</t>
+    <t>科科斯（基林）群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%AF%9E%E5%B2%9B</t>
@@ -1031,7 +1019,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%B4%B9%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>馬紹爾群島</t>
+    <t>马绍尔群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%87%8C%E5%B7%B4%E6%96%AF</t>
@@ -1043,13 +1031,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E9%AD%AF</t>
   </si>
   <si>
-    <t>諾魯</t>
+    <t>诺鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -1061,7 +1049,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%8B%89%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
@@ -1085,25 +1073,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%BF%9F</t>
   </si>
   <si>
-    <t>斐濟</t>
+    <t>斐济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>新喀里多尼亞</t>
+    <t>新喀里多尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻里尼西亞</t>
+    <t>玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%93%A6%E7%9B%A7</t>
   </si>
   <si>
-    <t>圖瓦盧</t>
+    <t>图瓦卢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E6%91%A9%E4%BA%9A</t>
@@ -1115,13 +1103,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8A%A0</t>
   </si>
   <si>
-    <t>東加</t>
+    <t>东加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%9F%83</t>
   </si>
   <si>
-    <t>紐埃</t>
+    <t>纽埃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E5%85%8B%E7%BE%A4%E5%B2%9B</t>
@@ -1139,7 +1127,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -1157,13 +1145,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E6%81%A9%E7%BE%A4%E5%B2%9B</t>
@@ -1181,13 +1169,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%85%8B%E5%8A%B3</t>
@@ -1199,19 +1187,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%88%A9%E6%96%AF%E5%92%8C%E5%AF%8C%E5%9C%96%E7%B4%8D</t>
   </si>
   <si>
-    <t>瓦利斯和富圖納</t>
+    <t>瓦利斯和富图纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>法屬玻里尼西亞</t>
+    <t>法属玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E7%89%B9%E5%87%AF%E6%81%A9%E7%BE%A4%E5%B2%9B</t>
@@ -1223,7 +1211,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E6%B4%BB%E7%AF%80%E5%B3%B6</t>
   </si>
   <si>
-    <t>復活節島</t>
+    <t>复活节岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B8%9D%E6%B1%B6</t>
@@ -1235,7 +1223,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1253,7 +1241,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -3915,7 +3903,7 @@
         <v>151</v>
       </c>
       <c r="F80" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3941,10 +3929,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>152</v>
+      </c>
+      <c r="F81" t="s">
         <v>153</v>
-      </c>
-      <c r="F81" t="s">
-        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>7</v>
@@ -3970,10 +3958,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F82" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3999,10 +3987,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F83" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4028,10 +4016,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F84" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4057,10 +4045,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F85" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4086,10 +4074,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F86" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G86" t="n">
         <v>8</v>
@@ -4115,10 +4103,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F87" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -4144,13 +4132,13 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F88" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
@@ -4173,10 +4161,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F89" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -4202,10 +4190,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F90" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4231,10 +4219,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F91" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4260,10 +4248,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F92" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4289,10 +4277,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F93" t="s">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="G93" t="n">
         <v>4</v>
@@ -4318,10 +4306,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F94" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G94" t="n">
         <v>8</v>
@@ -4347,10 +4335,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F95" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4376,10 +4364,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F96" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4405,10 +4393,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F97" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4434,10 +4422,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F98" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4463,10 +4451,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F99" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4492,10 +4480,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F100" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G100" t="n">
         <v>7</v>
@@ -4521,10 +4509,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F101" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4550,10 +4538,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F102" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4608,10 +4596,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F104" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4637,10 +4625,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F105" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4666,10 +4654,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F106" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4695,10 +4683,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F107" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4724,10 +4712,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F108" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4753,10 +4741,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F109" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4782,10 +4770,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F110" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4811,10 +4799,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F111" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G111" t="n">
         <v>5</v>
@@ -4840,10 +4828,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F112" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4869,10 +4857,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F113" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4898,10 +4886,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F114" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G114" t="n">
         <v>4</v>
@@ -4927,10 +4915,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F115" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -4956,10 +4944,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F116" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4985,10 +4973,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5014,10 +5002,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F118" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5043,10 +5031,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F119" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G119" t="n">
         <v>3</v>
@@ -5072,10 +5060,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F120" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5101,10 +5089,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F121" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G121" t="n">
         <v>3</v>
@@ -5159,10 +5147,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F123" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5188,10 +5176,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F124" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5217,10 +5205,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F125" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5246,10 +5234,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F126" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5275,10 +5263,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F127" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5304,10 +5292,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F128" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5333,10 +5321,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F129" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5391,10 +5379,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F131" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5420,10 +5408,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F132" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5449,10 +5437,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F133" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -5478,10 +5466,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F134" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5507,10 +5495,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F135" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5536,10 +5524,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F136" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5565,10 +5553,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F137" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5594,10 +5582,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F138" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5623,10 +5611,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F139" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5652,10 +5640,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F140" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5681,10 +5669,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F141" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -5710,10 +5698,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F142" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5739,10 +5727,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F143" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5768,10 +5756,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F144" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5797,10 +5785,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F145" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5826,10 +5814,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F146" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5855,10 +5843,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F147" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5884,10 +5872,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F148" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5913,10 +5901,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F149" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5942,10 +5930,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F150" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -5971,10 +5959,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F151" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6000,10 +5988,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F152" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6029,10 +6017,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F153" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6058,10 +6046,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F154" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -6087,10 +6075,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F155" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G155" t="n">
         <v>3</v>
@@ -6116,10 +6104,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F156" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6145,10 +6133,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F157" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6174,10 +6162,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F158" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6203,10 +6191,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F159" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6232,10 +6220,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F160" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6261,10 +6249,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F161" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6290,10 +6278,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F162" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6319,10 +6307,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F163" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G163" t="n">
         <v>3</v>
@@ -6348,10 +6336,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F164" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G164" t="n">
         <v>3</v>
@@ -6377,10 +6365,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F165" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6406,10 +6394,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F166" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6435,10 +6423,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F167" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6464,10 +6452,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F168" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6493,10 +6481,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F169" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G169" t="n">
         <v>3</v>
@@ -6522,10 +6510,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F170" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -6551,10 +6539,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F171" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6580,10 +6568,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F172" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -6609,10 +6597,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F173" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6638,10 +6626,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F174" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6667,10 +6655,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F175" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6696,10 +6684,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F176" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6725,10 +6713,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F177" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -6754,10 +6742,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F178" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6783,10 +6771,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F179" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6812,10 +6800,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F180" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6841,10 +6829,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F181" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6870,10 +6858,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F182" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -6899,10 +6887,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F183" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6928,10 +6916,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F184" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6957,10 +6945,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F185" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6986,10 +6974,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F186" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7015,10 +7003,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F187" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7044,10 +7032,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F188" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -7073,10 +7061,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F189" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7102,10 +7090,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F190" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7131,10 +7119,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F191" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7160,10 +7148,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F192" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -7189,10 +7177,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F193" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -7218,10 +7206,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F194" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G194" t="n">
         <v>4</v>
@@ -7247,10 +7235,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F195" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -7276,10 +7264,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F196" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7305,10 +7293,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F197" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7334,10 +7322,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F198" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7363,10 +7351,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F199" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7392,10 +7380,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F200" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7421,10 +7409,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F201" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7450,10 +7438,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F202" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7479,10 +7467,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F203" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7508,10 +7496,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F204" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7537,10 +7525,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F205" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7566,10 +7554,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F206" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7595,10 +7583,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F207" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7624,10 +7612,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F208" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7653,10 +7641,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F209" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7682,10 +7670,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F210" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7711,10 +7699,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F211" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7740,10 +7728,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F212" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -7769,10 +7757,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F213" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G213" t="n">
         <v>3</v>
@@ -7798,10 +7786,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F214" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7827,10 +7815,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F215" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7856,10 +7844,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F216" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
